--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>sheet名</t>
   </si>
@@ -85,21 +85,6 @@
     <t>达成参数2定义</t>
   </si>
   <si>
-    <t>RowId</t>
-  </si>
-  <si>
-    <t>RowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -113,22 +98,6 @@
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[1].val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[2].val</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -407,6 +376,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -415,11 +388,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
+    <t>Rward[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rward[1].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rward[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rward[2].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserExp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +610,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -636,6 +625,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,7 +925,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -975,20 +967,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -997,20 +989,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1051,972 +1041,1011 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
+        <v>111</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
         <v>101</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
       </c>
       <c r="L4" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
         <v>102</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>82</v>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
       </c>
       <c r="L5" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
         <v>103</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>83</v>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
         <v>104</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>84</v>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
         <v>105</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>85</v>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>102</v>
+      <c r="H8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
       </c>
       <c r="L8" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
         <v>106</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>86</v>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
         <v>107</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>87</v>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
       </c>
       <c r="L10" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
         <v>108</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>88</v>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
         <v>109</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>89</v>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
       </c>
       <c r="L12" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
         <v>110</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
         <v>111</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
         <v>112</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>92</v>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50</v>
       </c>
       <c r="G15" s="3">
-        <v>50</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
         <v>113</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>92</v>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
       </c>
       <c r="G16" s="3">
-        <v>100</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
       </c>
       <c r="L16" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
         <v>114</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>92</v>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
       </c>
       <c r="L17" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
         <v>115</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
       </c>
       <c r="L18" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
         <v>116</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
         <v>30</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>94</v>
+      <c r="E19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5</v>
       </c>
       <c r="L19" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
         <v>117</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3">
         <v>30</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>95</v>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5</v>
       </c>
       <c r="L20" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
         <v>118</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>96</v>
+      <c r="E21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>102</v>
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5</v>
       </c>
       <c r="L21" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
         <v>119</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="3">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>96</v>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>102</v>
+      <c r="H22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>120</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>97</v>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>102</v>
+      <c r="H23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5</v>
       </c>
       <c r="L23" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
         <v>121</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="3">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
         <v>30</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>98</v>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
         <v>122</v>
       </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="3">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3">
         <v>30</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>99</v>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="3">
+        <v>5</v>
       </c>
       <c r="L25" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
         <v>123</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3">
         <v>30</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>100</v>
+      <c r="E26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5</v>
       </c>
       <c r="L26" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1847,7 +1847,9 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>41</v>
       </c>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>51</v>
@@ -1547,7 +1547,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>75</v>
@@ -1583,7 +1583,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>75</v>
@@ -1619,7 +1619,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>75</v>
@@ -1655,7 +1655,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>80</v>
@@ -1691,7 +1691,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="4">
-        <v>30</v>
+        <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>83</v>
@@ -1727,7 +1727,7 @@
         <v>85</v>
       </c>
       <c r="D20" s="4">
-        <v>30</v>
+        <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>86</v>
@@ -1877,7 +1877,7 @@
         <v>96</v>
       </c>
       <c r="D24" s="4">
-        <v>30</v>
+        <v>999</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>97</v>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -15,12 +15,12 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="日常任务" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>sheet名</t>
   </si>
@@ -188,15 +188,6 @@
     <t>购买游戏币次数</t>
   </si>
   <si>
-    <t>购买体力</t>
-  </si>
-  <si>
-    <t>进行%s次体力购买</t>
-  </si>
-  <si>
-    <t>购买体力次数</t>
-  </si>
-  <si>
     <t>世界留言</t>
   </si>
   <si>
@@ -258,48 +249,6 @@
   </si>
   <si>
     <t>神器部件升级次数</t>
-  </si>
-  <si>
-    <t>消耗体力（一）</t>
-  </si>
-  <si>
-    <t>累积消耗%s点体力</t>
-  </si>
-  <si>
-    <t>消耗体力数量</t>
-  </si>
-  <si>
-    <t>消耗体力（二）</t>
-  </si>
-  <si>
-    <t>消耗体力（三）</t>
-  </si>
-  <si>
-    <t>赠送礼物</t>
-  </si>
-  <si>
-    <t>赠送卡牌礼物%s次</t>
-  </si>
-  <si>
-    <t>赠送礼物次数</t>
-  </si>
-  <si>
-    <t>命运之门</t>
-  </si>
-  <si>
-    <t>通关%s次命运之门</t>
-  </si>
-  <si>
-    <t>命运之门通关总次数</t>
-  </si>
-  <si>
-    <t>五行之力</t>
-  </si>
-  <si>
-    <t>进行%s次五行之力升级</t>
-  </si>
-  <si>
-    <t>五行之力升级次数</t>
   </si>
   <si>
     <t>普通寄灵人扭蛋</t>
@@ -935,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -1004,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1024,7 +973,7 @@
     <col min="12" max="12" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1041,10 +990,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1062,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1073,16 +1022,16 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1100,7 +1049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>33</v>
@@ -1137,8 +1086,11 @@
       <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -1171,10 +1123,14 @@
         <v>5</v>
       </c>
       <c r="L4" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f>INT(N4*$N$3)</f>
+        <v>225</v>
+      </c>
+      <c r="N4" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -1207,10 +1163,14 @@
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L5:L19" si="0">INT(N5*$N$3)</f>
+        <v>225</v>
+      </c>
+      <c r="N5" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -1243,10 +1203,14 @@
         <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N6" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>104</v>
       </c>
@@ -1257,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="4">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>51</v>
@@ -1265,7 +1229,9 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1279,10 +1245,14 @@
         <v>5</v>
       </c>
       <c r="L7" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N7" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>105</v>
       </c>
@@ -1301,9 +1271,7 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1317,10 +1285,14 @@
         <v>5</v>
       </c>
       <c r="L8" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N8" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>106</v>
       </c>
@@ -1353,10 +1325,14 @@
         <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N9" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>107</v>
       </c>
@@ -1389,10 +1365,14 @@
         <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N10" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>108</v>
       </c>
@@ -1425,10 +1405,14 @@
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N11" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>109</v>
       </c>
@@ -1461,10 +1445,14 @@
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N12" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>110</v>
       </c>
@@ -1497,10 +1485,14 @@
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N13" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>111</v>
       </c>
@@ -1519,7 +1511,9 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>41</v>
       </c>
@@ -1533,10 +1527,14 @@
         <v>5</v>
       </c>
       <c r="L14" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N14" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>112</v>
       </c>
@@ -1547,15 +1545,17 @@
         <v>74</v>
       </c>
       <c r="D15" s="4">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
       <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1569,29 +1569,35 @@
         <v>5</v>
       </c>
       <c r="L15" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N15" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D16" s="4">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4">
-        <v>100</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
       <c r="H16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1605,27 +1611,31 @@
         <v>5</v>
       </c>
       <c r="L16" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N16" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
@@ -1641,24 +1651,28 @@
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N17" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1677,24 +1691,28 @@
         <v>5</v>
       </c>
       <c r="L18" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N18" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1713,265 +1731,11 @@
         <v>5</v>
       </c>
       <c r="L19" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>117</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4">
-        <v>999</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>118</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>119</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="4">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>120</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="4">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="4">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>121</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="4">
-        <v>999</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>122</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="4">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>123</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="4">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="N19" s="1">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -197,9 +197,6 @@
     <t>聊天次数</t>
   </si>
   <si>
-    <t>寄灵人升级</t>
-  </si>
-  <si>
     <t>进行%s次寄灵人升级</t>
   </si>
   <si>
@@ -323,6 +320,10 @@
   </si>
   <si>
     <t>daily.lua</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用1次牧守令</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -956,7 +957,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,10 +991,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1022,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1069,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>33</v>
@@ -1114,7 +1115,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>42</v>
@@ -1123,8 +1124,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="4">
-        <f>INT(N4*$N$3)</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N4" s="1">
         <v>75</v>
@@ -1154,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>42</v>
@@ -1163,8 +1163,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L19" si="0">INT(N5*$N$3)</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N5" s="1">
         <v>75</v>
@@ -1194,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>42</v>
@@ -1203,8 +1202,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N6" s="1">
         <v>75</v>
@@ -1236,7 +1234,7 @@
         <v>41</v>
       </c>
       <c r="I7" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>42</v>
@@ -1245,8 +1243,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N7" s="1">
         <v>75</v>
@@ -1257,16 +1254,16 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1276,7 +1273,7 @@
         <v>41</v>
       </c>
       <c r="I8" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>42</v>
@@ -1285,8 +1282,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N8" s="1">
         <v>75</v>
@@ -1297,16 +1293,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D9" s="4">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1316,7 +1312,7 @@
         <v>41</v>
       </c>
       <c r="I9" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>42</v>
@@ -1325,8 +1321,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N9" s="1">
         <v>75</v>
@@ -1337,16 +1332,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1356,7 +1351,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>42</v>
@@ -1365,8 +1360,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N10" s="1">
         <v>75</v>
@@ -1377,16 +1371,16 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1396,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>42</v>
@@ -1405,8 +1399,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N11" s="1">
         <v>75</v>
@@ -1417,16 +1410,16 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1436,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>42</v>
@@ -1445,8 +1438,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N12" s="1">
         <v>75</v>
@@ -1457,16 +1449,16 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1476,7 +1468,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>42</v>
@@ -1485,8 +1477,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N13" s="1">
         <v>75</v>
@@ -1497,16 +1488,16 @@
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1518,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>42</v>
@@ -1527,8 +1518,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N14" s="1">
         <v>75</v>
@@ -1539,16 +1529,16 @@
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1560,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>42</v>
@@ -1569,8 +1559,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="N15" s="1">
         <v>75</v>
@@ -1581,16 +1570,16 @@
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1602,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>42</v>
@@ -1611,8 +1600,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N16" s="1">
         <v>75</v>
@@ -1623,16 +1611,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1642,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="4">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>42</v>
@@ -1651,8 +1639,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N17" s="1">
         <v>75</v>
@@ -1663,16 +1650,16 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1682,7 +1669,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>42</v>
@@ -1691,8 +1678,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N18" s="1">
         <v>75</v>
@@ -1703,16 +1689,16 @@
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D19" s="4">
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1722,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>42</v>
@@ -1731,8 +1717,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="N19" s="1">
         <v>75</v>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>sheet名</t>
   </si>
@@ -155,175 +155,182 @@
     <t>队伍经验</t>
   </si>
   <si>
-    <t>普通剧情</t>
-  </si>
-  <si>
-    <t>通关%s次普通剧情</t>
-  </si>
-  <si>
-    <t>通关普通剧情关卡次数</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
     <t>钻石</t>
   </si>
   <si>
-    <t>困难剧情</t>
-  </si>
-  <si>
-    <t>通关%s次困难剧情</t>
-  </si>
-  <si>
-    <t>通关困难剧情关卡次数</t>
-  </si>
-  <si>
     <t>购买游戏币</t>
   </si>
   <si>
     <t>进行%s次游戏币购买</t>
   </si>
   <si>
-    <t>购买游戏币次数</t>
-  </si>
-  <si>
     <t>世界留言</t>
   </si>
   <si>
     <t>进行%s次世界喊话</t>
   </si>
   <si>
-    <t>聊天次数</t>
-  </si>
-  <si>
-    <t>进行%s次寄灵人升级</t>
-  </si>
-  <si>
-    <t>寄灵人升级次数</t>
-  </si>
-  <si>
     <t>守护灵升级</t>
   </si>
   <si>
+    <t>技能升级</t>
+  </si>
+  <si>
+    <t>进行%s次插槽技能升级</t>
+  </si>
+  <si>
+    <t>专属武器强化</t>
+  </si>
+  <si>
+    <t>进行%s次专属武器强化</t>
+  </si>
+  <si>
+    <t>获取技能经验</t>
+  </si>
+  <si>
+    <t>进行%s次技能经验分解</t>
+  </si>
+  <si>
+    <t>神器升级</t>
+  </si>
+  <si>
+    <t>进行%s次神器部件升级</t>
+  </si>
+  <si>
+    <t>普通寄灵人扭蛋</t>
+  </si>
+  <si>
+    <t>进行%s次普通寄灵人扭蛋</t>
+  </si>
+  <si>
+    <t>普通守护灵扭蛋</t>
+  </si>
+  <si>
+    <t>进行%s次普通守护灵扭蛋</t>
+  </si>
+  <si>
+    <t>杂货店采购</t>
+  </si>
+  <si>
+    <t>杂货店购买%s次商品</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>参与%s次芦花古楼</t>
+  </si>
+  <si>
+    <t>个人竞技</t>
+  </si>
+  <si>
+    <t>参与%s次个人竞技</t>
+  </si>
+  <si>
+    <t>Param[1]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[2]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成条件参数2定义</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily.lua</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用1次牧守令</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-jlr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-shopSum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天-times</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用%d次牧守令进行快速挂机</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级-bhv</t>
+  </si>
+  <si>
     <t>进行%s次守护灵升级</t>
-  </si>
-  <si>
-    <t>守护灵升级次数</t>
-  </si>
-  <si>
-    <t>技能升级</t>
-  </si>
-  <si>
-    <t>进行%s次插槽技能升级</t>
-  </si>
-  <si>
-    <t>插槽技能升级次数</t>
-  </si>
-  <si>
-    <t>专属武器强化</t>
-  </si>
-  <si>
-    <t>进行%s次专属武器强化</t>
-  </si>
-  <si>
-    <t>专属武器强化次数</t>
-  </si>
-  <si>
-    <t>获取技能经验</t>
-  </si>
-  <si>
-    <t>进行%s次技能经验分解</t>
-  </si>
-  <si>
-    <t>获取技能经验次数</t>
-  </si>
-  <si>
-    <t>神器升级</t>
-  </si>
-  <si>
-    <t>进行%s次神器部件升级</t>
-  </si>
-  <si>
-    <t>神器部件升级次数</t>
-  </si>
-  <si>
-    <t>普通寄灵人扭蛋</t>
-  </si>
-  <si>
-    <t>进行%s次普通寄灵人扭蛋</t>
-  </si>
-  <si>
-    <t>抽卡次数</t>
-  </si>
-  <si>
-    <t>普通守护灵扭蛋</t>
-  </si>
-  <si>
-    <t>进行%s次普通守护灵扭蛋</t>
-  </si>
-  <si>
-    <t>杂货店采购</t>
-  </si>
-  <si>
-    <t>杂货店购买%s次商品</t>
-  </si>
-  <si>
-    <t>特定商店进行购买次数</t>
-  </si>
-  <si>
-    <t>个人boss</t>
-  </si>
-  <si>
-    <t>参与%s次个人boss</t>
-  </si>
-  <si>
-    <t>个人boss挑战次数</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>参与%s次芦花古楼</t>
-  </si>
-  <si>
-    <t>芦花古楼挑战次数</t>
-  </si>
-  <si>
-    <t>个人竞技</t>
-  </si>
-  <si>
-    <t>参与%s次个人竞技</t>
-  </si>
-  <si>
-    <t>个人竞技挑战次数</t>
-  </si>
-  <si>
-    <t>Param[1]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[2]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>达成条件参数2定义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>daily.lua</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用1次牧守令</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-swep</t>
+  </si>
+  <si>
+    <t>技能升级-bhv</t>
+  </si>
+  <si>
+    <t>专属武器强化-bhv</t>
+  </si>
+  <si>
+    <t>神器-组件-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀%d次恶灵</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆游戏，感受镇魂街的魅力</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分解-bhv</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +536,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
@@ -550,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -885,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -954,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,10 +1001,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1023,16 +1033,16 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1070,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>33</v>
@@ -1095,30 +1105,30 @@
       <c r="A4" s="4">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4">
         <v>2500</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K4" s="4">
         <v>5</v>
@@ -1135,29 +1145,29 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>2500</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4">
         <v>5</v>
@@ -1174,35 +1184,37 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>2500</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K6" s="4">
         <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N6" s="1">
         <v>75</v>
@@ -1213,37 +1225,35 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>2500</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7" s="4">
         <v>5</v>
       </c>
       <c r="L7" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N7" s="1">
         <v>75</v>
@@ -1254,35 +1264,35 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4">
         <v>2500</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
       </c>
       <c r="L8" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N8" s="1">
         <v>75</v>
@@ -1293,35 +1303,35 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4">
         <v>2500</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N9" s="1">
         <v>75</v>
@@ -1332,35 +1342,35 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>2500</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4">
         <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N10" s="1">
         <v>75</v>
@@ -1371,35 +1381,35 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4">
         <v>2500</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N11" s="1">
         <v>75</v>
@@ -1410,35 +1420,35 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I12" s="4">
         <v>2500</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N12" s="1">
         <v>75</v>
@@ -1449,52 +1459,52 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4">
         <v>2500</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N13" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>71</v>
@@ -1502,23 +1512,21 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K14" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N14" s="1">
         <v>75</v>
@@ -1529,78 +1537,78 @@
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15" s="4">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15" s="4">
         <v>5</v>
       </c>
       <c r="L15" s="4">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N15" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="4">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
       <c r="L16" s="4">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="N16" s="1">
         <v>75</v>
@@ -1611,121 +1619,79 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4">
-        <v>999</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I17" s="4">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K17" s="4">
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <v>750</v>
+        <v>275</v>
       </c>
       <c r="N17" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I18" s="4">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4">
-        <v>250</v>
-      </c>
-      <c r="N18" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>116</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="4">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4">
         <v>500</v>
-      </c>
-      <c r="N19" s="1">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,10 +1131,10 @@
         <v>39</v>
       </c>
       <c r="K4" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N4" s="1">
         <v>75</v>
@@ -1170,10 +1170,10 @@
         <v>39</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N5" s="1">
         <v>75</v>
@@ -1211,10 +1211,10 @@
         <v>39</v>
       </c>
       <c r="K6" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N6" s="1">
         <v>75</v>
@@ -1250,10 +1250,10 @@
         <v>39</v>
       </c>
       <c r="K7" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N7" s="1">
         <v>75</v>
@@ -1289,10 +1289,10 @@
         <v>39</v>
       </c>
       <c r="K8" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N8" s="1">
         <v>75</v>
@@ -1328,10 +1328,10 @@
         <v>39</v>
       </c>
       <c r="K9" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N9" s="1">
         <v>75</v>
@@ -1367,10 +1367,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L10" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N10" s="1">
         <v>75</v>
@@ -1406,10 +1406,10 @@
         <v>39</v>
       </c>
       <c r="K11" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N11" s="1">
         <v>75</v>
@@ -1445,10 +1445,10 @@
         <v>39</v>
       </c>
       <c r="K12" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N12" s="1">
         <v>75</v>
@@ -1484,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="4">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N13" s="1">
         <v>75</v>
@@ -1523,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="4">
         <v>500</v>
@@ -1564,10 +1564,10 @@
         <v>39</v>
       </c>
       <c r="K15" s="4">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="L15" s="4">
-        <v>275</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="1">
         <v>75</v>
@@ -1590,7 +1590,7 @@
         <v>82</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1605,10 +1605,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="4">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="L16" s="4">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="N16" s="1">
         <v>75</v>
@@ -1644,10 +1644,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="4">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="L17" s="4">
-        <v>275</v>
+        <v>1500</v>
       </c>
       <c r="N17" s="1">
         <v>75</v>
@@ -1683,7 +1683,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="4">
         <v>500</v>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -215,122 +215,124 @@
     <t>杂货店采购</t>
   </si>
   <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>参与%s次芦花古楼</t>
+  </si>
+  <si>
+    <t>个人竞技</t>
+  </si>
+  <si>
+    <t>参与%s次个人竞技</t>
+  </si>
+  <si>
+    <t>Param[1]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[2]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成条件参数2定义</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily.lua</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用1次牧守令</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-jlr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-shopSum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天-times</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用%d次牧守令进行快速挂机</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%s次守护灵升级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-swep</t>
+  </si>
+  <si>
+    <t>技能升级-bhv</t>
+  </si>
+  <si>
+    <t>专属武器强化-bhv</t>
+  </si>
+  <si>
+    <t>神器-组件-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀%d次恶灵</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆游戏，感受镇魂街的魅力</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分解-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>杂货店购买%s次商品</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>参与%s次芦花古楼</t>
-  </si>
-  <si>
-    <t>个人竞技</t>
-  </si>
-  <si>
-    <t>参与%s次个人竞技</t>
-  </si>
-  <si>
-    <t>Param[1]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[2]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>达成条件参数2定义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>daily.lua</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用1次牧守令</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-jlr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店购买-shopSum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点金</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天-times</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用%d次牧守令进行快速挂机</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌升级-bhv</t>
-  </si>
-  <si>
-    <t>进行%s次守护灵升级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机派遣-swep</t>
-  </si>
-  <si>
-    <t>技能升级-bhv</t>
-  </si>
-  <si>
-    <t>专属武器强化-bhv</t>
-  </si>
-  <si>
-    <t>神器-组件-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀%d次恶灵</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆游戏，感受镇魂街的魅力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能分解-bhv</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -967,7 +969,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1003,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1033,16 +1035,16 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1080,7 +1082,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>33</v>
@@ -1106,16 +1108,16 @@
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4">
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1154,7 +1156,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1193,14 +1195,12 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4">
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1267,13 +1267,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4">
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1540,13 +1540,13 @@
         <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1578,16 +1578,16 @@
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4">
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1619,16 +1619,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="4">
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1658,16 +1658,16 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="4">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>sheet名</t>
   </si>
@@ -110,9 +110,6 @@
     <t>int:&lt;&gt;</t>
   </si>
   <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
     <t>condition_id:&lt;&gt;</t>
   </si>
   <si>
@@ -333,6 +330,14 @@
   </si>
   <si>
     <t>杂货店购买%s次商品</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -968,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1028,76 +1033,76 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1108,29 +1113,29 @@
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="D4" s="4">
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4">
         <v>2500</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4">
         <v>1000</v>
@@ -1147,29 +1152,29 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="4">
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4">
         <v>2500</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="4">
         <v>1000</v>
@@ -1186,29 +1191,29 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="4">
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4">
         <v>2500</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="4">
         <v>1000</v>
@@ -1225,29 +1230,29 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4">
         <v>2500</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="4">
         <v>1000</v>
@@ -1264,29 +1269,29 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4">
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4">
         <v>2500</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="4">
         <v>1000</v>
@@ -1303,29 +1308,29 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4">
         <v>2500</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="4">
         <v>1000</v>
@@ -1342,29 +1347,29 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="4">
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4">
         <v>2500</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="4">
         <v>1000</v>
@@ -1381,29 +1386,29 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="4">
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4">
         <v>2500</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="4">
         <v>1000</v>
@@ -1420,29 +1425,29 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="4">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="4">
         <v>2500</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="4">
         <v>1000</v>
@@ -1459,29 +1464,29 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="4">
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4">
         <v>2500</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="4">
         <v>1000</v>
@@ -1498,29 +1503,29 @@
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="4">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4">
         <v>5000</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="4">
         <v>1000</v>
@@ -1537,16 +1542,16 @@
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1555,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="4">
         <v>2500</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="4">
         <v>2000</v>
@@ -1578,16 +1583,16 @@
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D16" s="4">
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1596,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4">
         <v>7500</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="4">
         <v>3000</v>
@@ -1619,29 +1624,29 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="4">
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="4">
         <v>2500</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="4">
         <v>3000</v>
@@ -1658,29 +1663,29 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="4">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="4">
         <v>5000</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="4">
         <v>1000</v>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -197,12 +197,6 @@
     <t>进行%s次神器部件升级</t>
   </si>
   <si>
-    <t>普通寄灵人扭蛋</t>
-  </si>
-  <si>
-    <t>进行%s次普通寄灵人扭蛋</t>
-  </si>
-  <si>
     <t>普通守护灵扭蛋</t>
   </si>
   <si>
@@ -252,10 +246,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡-jlr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>抽卡-shl</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -338,6 +328,18 @@
   </si>
   <si>
     <t>cstring:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与%s次实时竞技</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场-bhv</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -974,7 +976,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,10 +1010,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1034,22 +1036,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -1087,7 +1089,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>32</v>
@@ -1113,16 +1115,16 @@
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4">
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1132,13 +1134,13 @@
         <v>37</v>
       </c>
       <c r="I4" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L4" s="4">
         <v>500</v>
@@ -1161,7 +1163,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1171,13 +1173,13 @@
         <v>37</v>
       </c>
       <c r="I5" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L5" s="4">
         <v>500</v>
@@ -1200,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1210,13 +1212,13 @@
         <v>37</v>
       </c>
       <c r="I6" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
         <v>500</v>
@@ -1230,16 +1232,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4">
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1249,13 +1251,13 @@
         <v>37</v>
       </c>
       <c r="I7" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K7" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4">
         <v>500</v>
@@ -1272,13 +1274,13 @@
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4">
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1288,13 +1290,13 @@
         <v>37</v>
       </c>
       <c r="I8" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L8" s="4">
         <v>500</v>
@@ -1317,7 +1319,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1327,13 +1329,13 @@
         <v>37</v>
       </c>
       <c r="I9" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4">
         <v>500</v>
@@ -1356,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1366,13 +1368,13 @@
         <v>37</v>
       </c>
       <c r="I10" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L10" s="4">
         <v>500</v>
@@ -1395,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1405,13 +1407,13 @@
         <v>37</v>
       </c>
       <c r="I11" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4">
         <v>500</v>
@@ -1434,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1444,13 +1446,13 @@
         <v>37</v>
       </c>
       <c r="I12" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
         <v>500</v>
@@ -1459,7 +1461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>110</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1483,13 +1485,13 @@
         <v>37</v>
       </c>
       <c r="I13" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L13" s="4">
         <v>500</v>
@@ -1498,7 +1500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>111</v>
       </c>
@@ -1506,32 +1508,34 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K14" s="4">
+        <v>15</v>
+      </c>
+      <c r="L14" s="4">
         <v>1000</v>
-      </c>
-      <c r="L14" s="4">
-        <v>500</v>
       </c>
       <c r="N14" s="1">
         <v>75</v>
@@ -1542,19 +1546,19 @@
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1563,16 +1567,16 @@
         <v>37</v>
       </c>
       <c r="I15" s="4">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="4">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L15" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N15" s="1">
         <v>75</v>
@@ -1583,43 +1587,41 @@
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4">
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
         <v>1</v>
       </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="4">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="4">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="L16" s="4">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N16" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>114</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1643,36 +1645,33 @@
         <v>37</v>
       </c>
       <c r="I17" s="4">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="4">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="L17" s="4">
-        <v>1500</v>
-      </c>
-      <c r="N17" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1682,16 +1681,16 @@
         <v>37</v>
       </c>
       <c r="I18" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="4">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
         <v>1000</v>
-      </c>
-      <c r="L18" s="4">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>sheet名</t>
   </si>
@@ -273,9 +273,6 @@
     <t>挂机派遣-swep</t>
   </si>
   <si>
-    <t>技能升级-bhv</t>
-  </si>
-  <si>
     <t>专属武器强化-bhv</t>
   </si>
   <si>
@@ -311,10 +308,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>技能分解-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵升级-bhv</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -340,6 +333,79 @@
   </si>
   <si>
     <t>实时竞技场-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能经验获得-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%s次征募</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募次数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打%s次讨伐区野怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭野怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打资源点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打%s次任意资源点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>调动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%s次队伍调动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源采集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%s次队资源采集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源采集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能升级-bhv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
+    <t>模块类型
+1、卡牌层
+9001、国战-赛季1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +544,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -511,6 +589,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -545,7 +634,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
@@ -566,9 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -973,27 +1074,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1003,73 +1104,79 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1080,76 +1187,82 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>101</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>1000</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>500</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -1159,36 +1272,39 @@
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>1000</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>500</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -1198,36 +1314,39 @@
       <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>1000</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>500</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>104</v>
       </c>
@@ -1237,36 +1356,39 @@
       <c r="C7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>1000</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>500</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>105</v>
       </c>
@@ -1276,36 +1398,39 @@
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>1000</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>500</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>106</v>
       </c>
@@ -1315,36 +1440,39 @@
       <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>1000</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>500</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>107</v>
       </c>
@@ -1354,36 +1482,39 @@
       <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>1000</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>500</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>108</v>
       </c>
@@ -1393,36 +1524,39 @@
       <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>1000</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>500</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>109</v>
       </c>
@@ -1432,36 +1566,39 @@
       <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>500</v>
+      </c>
+      <c r="O12" s="1">
         <v>75</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>500</v>
-      </c>
-      <c r="N12" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>110</v>
       </c>
@@ -1471,36 +1608,39 @@
       <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>1000</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>500</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>111</v>
       </c>
@@ -1508,81 +1648,87 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>2000</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>15</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>1000</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>32</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>3000</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>10</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>1500</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>113</v>
       </c>
@@ -1592,36 +1738,39 @@
       <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>1000</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>5</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>500</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>114</v>
       </c>
@@ -1631,65 +1780,270 @@
       <c r="C17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>2000</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>10</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="4">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>116</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5" t="s">
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="9">
+        <v>9001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J19" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L19" s="12">
         <v>10</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M19" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>117</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="12">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="12">
+        <v>10</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>118</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="9">
+        <v>9001</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="12">
+        <v>2000</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="12">
+        <v>10</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>119</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9">
+        <v>9001</v>
+      </c>
+      <c r="E22" s="9">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="12">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="12">
+        <v>10</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>120</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9001</v>
+      </c>
+      <c r="E23" s="9">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="12">
+        <v>10</v>
+      </c>
+      <c r="M23" s="12">
         <v>1000</v>
       </c>
     </row>

--- a/Excel/镇魂街/daily.日常任务.xlsx
+++ b/Excel/镇魂街/daily.日常任务.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>sheet名</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Reward[1].val</t>
   </si>
   <si>
-    <t>Reward[2].id</t>
-  </si>
-  <si>
-    <t>Reward[2].val</t>
-  </si>
-  <si>
     <t>UserExp</t>
   </si>
   <si>
@@ -143,19 +137,10 @@
     <t>掉落数量1</t>
   </si>
   <si>
-    <t>掉落ID2</t>
-  </si>
-  <si>
-    <t>掉落数量2</t>
-  </si>
-  <si>
     <t>队伍经验</t>
   </si>
   <si>
     <t>金币</t>
-  </si>
-  <si>
-    <t>钻石</t>
   </si>
   <si>
     <t>购买游戏币</t>
@@ -634,7 +619,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
@@ -663,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1005,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -1074,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,12 +1071,10 @@
     <col min="7" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -1114,10 +1094,10 @@
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -1125,539 +1105,461 @@
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3">
+      <c r="M3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="14">
+        <v>76</v>
+      </c>
+      <c r="D4" s="13">
         <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4">
-        <v>500</v>
-      </c>
-      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>500</v>
-      </c>
-      <c r="O5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>500</v>
-      </c>
-      <c r="O6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>500</v>
-      </c>
-      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="14">
+        <v>66</v>
+      </c>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>500</v>
-      </c>
-      <c r="O8" s="1">
+        <v>100</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="14">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13">
         <v>1</v>
       </c>
       <c r="E9" s="4">
         <v>32</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>103</v>
+      <c r="F9" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="4">
-        <v>5</v>
-      </c>
-      <c r="M9" s="4">
-        <v>500</v>
-      </c>
-      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="14">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="4">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>500</v>
-      </c>
-      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="14">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13">
         <v>1</v>
       </c>
       <c r="E11" s="4">
         <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-      <c r="M11" s="4">
-        <v>500</v>
-      </c>
-      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="14">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13">
         <v>1</v>
       </c>
       <c r="E12" s="4">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="4">
-        <v>5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>500</v>
-      </c>
-      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>500</v>
-      </c>
-      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="14">
+        <v>78</v>
+      </c>
+      <c r="D14" s="13">
         <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -1666,42 +1568,36 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J14" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="4">
-        <v>15</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="14">
+        <v>74</v>
+      </c>
+      <c r="D15" s="13">
         <v>1</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -1710,153 +1606,129 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J15" s="4">
-        <v>3000</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1500</v>
-      </c>
-      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="14">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13">
         <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="4">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4">
-        <v>500</v>
-      </c>
-      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="14">
+        <v>53</v>
+      </c>
+      <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="4">
         <v>32</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J17" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="4">
-        <v>10</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="14">
+        <v>82</v>
+      </c>
+      <c r="D18" s="13">
         <v>1</v>
       </c>
       <c r="E18" s="4">
         <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="4">
-        <v>10</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>116</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" s="9">
         <v>9001</v>
@@ -1865,37 +1737,31 @@
         <v>40</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="12">
-        <v>10</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>117</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D20" s="9">
         <v>9001</v>
@@ -1904,7 +1770,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -1913,30 +1779,24 @@
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="12">
-        <v>10</v>
-      </c>
-      <c r="M20" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>118</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21" s="9">
         <v>9001</v>
@@ -1945,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -1954,30 +1814,24 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="12">
-        <v>10</v>
-      </c>
-      <c r="M21" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>119</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" s="9">
         <v>9001</v>
@@ -1986,37 +1840,31 @@
         <v>40</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="12">
-        <v>10</v>
-      </c>
-      <c r="M22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>120</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" s="9">
         <v>9001</v>
@@ -2025,26 +1873,20 @@
         <v>40</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="12">
-        <v>10</v>
-      </c>
-      <c r="M23" s="12">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
